--- a/va_facility_data_2025-02-20/Parma VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Parma%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Parma VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Parma%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2abda1c79f19429d9d64428b9c5968ab"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfc25f2175980469b8f0f0a91e9f1a69a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8b1d47698a894a9c96509b2167cf9a2b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2540bc5930b84f579ad7b8c4599f17eb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5e53b5033a9f4fc9b4b00822d73c128d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R95001b26fc2a4a3fa7857289d292c582"/>
   </x:sheets>
 </x:workbook>
 </file>
